--- a/chart.xlsx
+++ b/chart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Player</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>ExpressJS with Dust View Engine</t>
+  </si>
+  <si>
+    <t>JPG File(6.56MB)</t>
+  </si>
+  <si>
+    <t>Jquery (83K)</t>
+  </si>
+  <si>
+    <t>Last Update:</t>
   </si>
 </sst>
 </file>
@@ -382,43 +391,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5703125" customWidth="1"/>
     <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>8544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12580</v>
+      </c>
+      <c r="D2">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>6909</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -426,36 +449,49 @@
         <v>6747</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>6272</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>2501</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>632</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
